--- a/23-24_Automatic-Control-Lab/Multimodal Transformer/Language_Map.xlsx
+++ b/23-24_Automatic-Control-Lab/Multimodal Transformer/Language_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7e957c80ce88a9/Documents/Professional/Research/23-24_Automatic-Control-Lab/Multimodal Transformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{42D1905F-9432-46E3-8812-C63BDE4498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E31574-BFD0-4515-BB83-8DC0790B2692}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{42D1905F-9432-46E3-8812-C63BDE4498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A7749CE-536A-4422-A0C5-523C6B70D9B8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C47CD43C-E4AD-4B61-82F7-08EB155AECF6}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C47CD43C-E4AD-4B61-82F7-08EB155AECF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,8 +111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4256105" y="934380"/>
-          <a:ext cx="4392716" cy="4376256"/>
+          <a:off x="4271028" y="971102"/>
+          <a:ext cx="4408804" cy="4570809"/>
           <a:chOff x="4265833" y="942067"/>
           <a:chExt cx="4398066" cy="4418869"/>
         </a:xfrm>
@@ -15050,8 +15050,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4255851" y="934380"/>
-          <a:ext cx="4392969" cy="4372447"/>
+          <a:off x="4273261" y="971102"/>
+          <a:ext cx="4406570" cy="4574620"/>
           <a:chOff x="3901440" y="2747010"/>
           <a:chExt cx="1424940" cy="1424940"/>
         </a:xfrm>
@@ -15355,13 +15355,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264685</xdr:colOff>
+      <xdr:colOff>264684</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>132101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>584703</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12987</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>13579</xdr:rowOff>
     </xdr:to>
@@ -15378,8 +15378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7595651" y="2339273"/>
-          <a:ext cx="320018" cy="249340"/>
+          <a:off x="7590275" y="2418101"/>
+          <a:ext cx="358769" cy="262478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15410,13 +15410,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="500" b="0"/>
-            <a:t>R=0</a:t>
+            <a:t>R12=0</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="500" b="0"/>
-            <a:t>D=1</a:t>
+            <a:t>D12=1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15426,15 +15426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>358722</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>110938</xdr:rowOff>
+      <xdr:colOff>211517</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>497251</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>141415</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15449,8 +15449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8911515" y="846662"/>
-          <a:ext cx="1360357" cy="1317994"/>
+          <a:off x="8758040" y="717074"/>
+          <a:ext cx="1741108" cy="1586244"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15479,13 +15479,22 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="800"/>
-            <a:t>Range = 340</a:t>
+            <a:t>Range11 = 340</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="800"/>
-            <a:t>Distance = 1.2</a:t>
+            <a:t>Distance11 = 5.8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>-45 is 45 from +x</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15498,17 +15507,17 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="800" baseline="0"/>
-            <a:t> 180, </a:t>
+            <a:t> 180; 360-340 = 20; </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="800"/>
-            <a:t>45-20=25</a:t>
+            <a:t>45+20=65</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="800"/>
-            <a:t>x1 = D*cos(25)</a:t>
+            <a:t>x1 = D*cos(65) = 2.45</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15518,7 +15527,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="800" baseline="0"/>
-            <a:t> = D*sin(25)</a:t>
+            <a:t> = D*sin(65) = 5.25</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15527,13 +15536,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="800" baseline="0"/>
-            <a:t>x+x1=1.9,</a:t>
+            <a:t>x+x1=2 + 2.45=4.25,</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="800" baseline="0"/>
-            <a:t>y+y1=1+</a:t>
+            <a:t>y+y1=1+ 5.25= 6.25</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="800"/>
         </a:p>
@@ -15552,7 +15561,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>19660</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>65943</xdr:rowOff>
+      <xdr:rowOff>43295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15567,8 +15576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7582988" y="2705868"/>
-          <a:ext cx="342422" cy="290844"/>
+          <a:off x="7610964" y="2808445"/>
+          <a:ext cx="344753" cy="282850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15599,13 +15608,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="500" b="0"/>
-            <a:t>R=30</a:t>
+            <a:t>R13=30</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="500" b="0"/>
-            <a:t>D=0.7</a:t>
+            <a:t>D13=0.7</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15615,11 +15624,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353870</xdr:colOff>
+      <xdr:colOff>284597</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>59121</xdr:rowOff>
+      <xdr:rowOff>46132</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="348942" cy="248914"/>
+    <xdr:ext cx="413959" cy="248914"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1921" name="TextBox 1920">
@@ -15633,8 +15642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7073922" y="1714500"/>
-          <a:ext cx="348942" cy="248914"/>
+          <a:off x="6999722" y="1760632"/>
+          <a:ext cx="413959" cy="248914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15665,13 +15674,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="500"/>
-            <a:t>R=340</a:t>
+            <a:t>R11=340</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="500"/>
-            <a:t>D=1.2</a:t>
+            <a:t>D11=1.2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15703,9 +15712,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6596726" y="3315131"/>
-          <a:ext cx="268605" cy="264017"/>
+        <a:xfrm rot="11700000">
+          <a:off x="6596726" y="3461046"/>
+          <a:ext cx="268605" cy="272123"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -15891,7 +15900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6989944" y="3186109"/>
+          <a:off x="6950052" y="3356556"/>
           <a:ext cx="594393" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15933,7 +15942,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="600" baseline="0"/>
-            <a:t>rotation=180</a:t>
+            <a:t>rotation=165</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="600"/>
         </a:p>
@@ -16019,7 +16028,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>99090</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="594393" cy="280205"/>
+    <xdr:ext cx="617926" cy="280205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1927" name="TextBox 1926">
@@ -16033,8 +16042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5681354" y="3199781"/>
-          <a:ext cx="594393" cy="280205"/>
+          <a:off x="5703738" y="3337590"/>
+          <a:ext cx="617926" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16075,7 +16084,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="600" baseline="0"/>
-            <a:t>rotation=135</a:t>
+            <a:t>rotation=-135</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="600"/>
         </a:p>
@@ -16109,8 +16118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="13500000">
-          <a:off x="4009423" y="1350592"/>
-          <a:ext cx="2619159" cy="1555054"/>
+          <a:off x="3972867" y="1431269"/>
+          <a:ext cx="2734553" cy="1570136"/>
           <a:chOff x="8429996" y="1990050"/>
           <a:chExt cx="2572930" cy="1583149"/>
         </a:xfrm>
@@ -16226,15 +16235,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>191707</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>51729</xdr:rowOff>
+      <xdr:colOff>376603</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>547761</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>150593</xdr:rowOff>
+      <xdr:colOff>464017</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76348</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16248,11 +16257,11 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm rot="8100000">
-          <a:off x="5663516" y="3521018"/>
-          <a:ext cx="2183800" cy="1371809"/>
-          <a:chOff x="8465511" y="1996586"/>
-          <a:chExt cx="2159052" cy="1367745"/>
+        <a:xfrm rot="8726186">
+          <a:off x="5870796" y="3353994"/>
+          <a:ext cx="1918812" cy="2056354"/>
+          <a:chOff x="8434288" y="1585322"/>
+          <a:chExt cx="1891900" cy="1963583"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -16267,9 +16276,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="13500000" flipH="1">
-            <a:off x="9658599" y="1624004"/>
-            <a:ext cx="2275" cy="1929653"/>
+          <a:xfrm rot="12873814" flipH="1">
+            <a:off x="9505170" y="1585322"/>
+            <a:ext cx="373451" cy="1963583"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -16303,7 +16312,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="13500000">
-            <a:off x="9063596" y="1398501"/>
+            <a:off x="9032373" y="1428601"/>
             <a:ext cx="695729" cy="1891900"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -16337,9 +16346,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="13500000" flipH="1">
-            <a:off x="9159655" y="2855899"/>
-            <a:ext cx="372698" cy="644165"/>
+          <a:xfrm rot="12873814" flipH="1">
+            <a:off x="9113684" y="2835201"/>
+            <a:ext cx="554818" cy="646832"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -16389,8 +16398,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="6300000">
-          <a:off x="5100455" y="4272687"/>
-          <a:ext cx="1712598" cy="436791"/>
+          <a:off x="5085456" y="4467901"/>
+          <a:ext cx="1786042" cy="435469"/>
           <a:chOff x="8925330" y="2779152"/>
           <a:chExt cx="1679509" cy="444636"/>
         </a:xfrm>
@@ -16506,7 +16515,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85111</xdr:colOff>
+      <xdr:colOff>70669</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>29802</xdr:rowOff>
     </xdr:from>
@@ -16529,8 +16538,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6187569" y="4007700"/>
-          <a:ext cx="257143" cy="361627"/>
+          <a:off x="6154379" y="4220802"/>
+          <a:ext cx="271585" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16621,16 +16630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457767</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>11916</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>414200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>300609</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14348</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82144</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>126070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16644,13 +16653,19 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7753512" y="2018246"/>
-          <a:ext cx="1058799" cy="914400"/>
+        <a:xfrm rot="6300000">
+          <a:off x="9490360" y="2775865"/>
+          <a:ext cx="1050534" cy="888875"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -16679,10 +16694,637 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>456050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204353</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F3ACF8-1C92-46C5-BFAF-4F814CFDA6DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6560709" y="4674661"/>
+          <a:ext cx="358769" cy="262478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>R22=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>D22=1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>194830</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7138BD5D-6CFD-4B65-B7D1-0A671E43E757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6299489" y="3406790"/>
+          <a:ext cx="342034" cy="282850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>R23=30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>D13=0.7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59988</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="413959" cy="248914"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9616296B-51A1-4F22-8B2D-21FB8021FD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6892350" y="3869988"/>
+          <a:ext cx="413959" cy="248914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500"/>
+            <a:t>R21=340</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500"/>
+            <a:t>D21=1.2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>588532</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>64317</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="413959" cy="248914"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F058DD77-93B7-E330-4BFB-F66047240B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6082725" y="3683817"/>
+          <a:ext cx="413959" cy="248914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500"/>
+            <a:t>R31=340</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500"/>
+            <a:t>D21=1.2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536578</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68647</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="413959" cy="248914"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C1C584-E264-60C6-C7BE-489939316E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6030771" y="4640647"/>
+          <a:ext cx="413959" cy="248914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500"/>
+            <a:t>R32=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500"/>
+            <a:t>D21=1.2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60614</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>402648</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96937971-7639-81DD-4FDA-573C6CC580C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5554807" y="4021585"/>
+          <a:ext cx="342034" cy="282850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>R33=30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>D13=0.7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365130</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>113433</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>62070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78342FA-0C2B-474B-A0AF-0C3735609B73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248857" y="2085592"/>
+          <a:ext cx="358769" cy="262478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>R42=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>D12=1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55162</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51768D8F-4805-4915-9B98-F1321C007813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5815068" y="1813516"/>
+          <a:ext cx="344753" cy="282850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>R43=30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" b="0"/>
+            <a:t>D13=0.7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484623</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81635</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="413959" cy="248914"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328CBAAE-1C62-4627-9402-F4D366C347AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5368350" y="2748635"/>
+          <a:ext cx="413959" cy="248914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500"/>
+            <a:t>R41=340</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="500"/>
+            <a:t>D11=1.2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -16985,11 +17627,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8DC10-98DC-46EC-A8D1-0524D5032FD0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G6" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/23-24_Automatic-Control-Lab/Multimodal Transformer/Language_Map.xlsx
+++ b/23-24_Automatic-Control-Lab/Multimodal Transformer/Language_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7e957c80ce88a9/Documents/Professional/Research/23-24_Automatic-Control-Lab/Multimodal Transformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{42D1905F-9432-46E3-8812-C63BDE4498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A7749CE-536A-4422-A0C5-523C6B70D9B8}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{42D1905F-9432-46E3-8812-C63BDE4498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83585B2C-833F-42F0-BEA9-FEEFA81E9A76}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C47CD43C-E4AD-4B61-82F7-08EB155AECF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C47CD43C-E4AD-4B61-82F7-08EB155AECF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>45+90</t>
+  </si>
+  <si>
+    <t>135+90</t>
+  </si>
+  <si>
+    <t>270-(90-135)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -52,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,12 +74,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15428,13 +15458,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>211517</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145574</xdr:rowOff>
+      <xdr:rowOff>145573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>121228</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30307</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15449,8 +15479,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8758040" y="717074"/>
-          <a:ext cx="1741108" cy="1586244"/>
+          <a:off x="8758040" y="717073"/>
+          <a:ext cx="1511642" cy="5409234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15478,73 +15508,260 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
+            <a:rPr lang="en-US" sz="700"/>
             <a:t>Range11 = 340</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
+            <a:rPr lang="en-US" sz="700"/>
             <a:t>Distance11 = 5.8</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="800"/>
+          <a:endParaRPr lang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
+            <a:rPr lang="en-US" sz="700"/>
             <a:t>-45 is 45 from +x</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="800"/>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
+            <a:rPr lang="en-US" sz="700"/>
             <a:t>340 &gt;</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
             <a:t> 180; 360-340 = 20; </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
+            <a:rPr lang="en-US" sz="700"/>
             <a:t>45+20=65</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="700" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
-            <a:t>x1 = D*cos(65) = 2.45</a:t>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t>x11 = x1+D*cos(65) = 2 + 2.45 = 4.25,</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
-            <a:t>y1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" baseline="0"/>
-            <a:t> = D*sin(65) = 5.25</a:t>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t>y11 = y1 + D*sin(65) = 1+ 5.25 = 6.25</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" sz="700" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="800" baseline="0"/>
-            <a:t>x+x1=2 + 2.45=4.25,</a:t>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t>----------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="800" baseline="0"/>
-            <a:t>y+y1=1+ 5.25= 6.25</a:t>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Range12 = 0</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Distance12 = 4.7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>-45 is 45 from +x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>0 &lt; 180; -0; 45+0=45</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>x11 = x1+D*cos(45) = 2 + 3.32 = 5.32,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>y11 = y1 + D*sin(45) = 1+ 3.32 = 4.32</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>----------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Range13 = 30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Distance13 = 6.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>-45 is 45 from +x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>30 &lt; 180; -30; 45-30=15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>x11 = x1+D*cos(15) = 2 + 6.08 = 8.08,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>y11 = y1 + D*sin(15) = 1+ 1.63 = 2.63</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>----------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Range21 = 340</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Distance13 = 7.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>165 is 90+165=255 from +x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>340 &gt; 180; 360-340 = 20; 255+20=275</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>x21 = x2+D*cos(275) = 1 + 6.08 = 8.08,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>y21 = y2 + D*sin(275) = -1+ 1.63 = 2.63</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>----------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Range31 = 340</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Distance13 = 2.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>-135 is 90+165=255 from +x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>340 &gt; 180; 360-340 = 20; 255+20=275</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>x21 = x2+D*cos(275) = 1 + 6.08 = 8.08,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>y21 = y2 + D*sin(275) = -1+ 1.63 = 2.63</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="700"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16630,16 +16847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>414200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28036</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>189065</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>82144</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>126070</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>467474</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16654,7 +16871,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="6300000">
-          <a:off x="9490360" y="2775865"/>
+          <a:off x="11707088" y="1256196"/>
           <a:ext cx="1050534" cy="888875"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -17625,14 +17842,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8DC10-98DC-46EC-A8D1-0524D5032FD0}">
-  <dimension ref="A1"/>
+  <dimension ref="S15:V16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S15" s="1">
+        <v>-45</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-135</v>
+      </c>
+      <c r="U15" s="1">
+        <v>45</v>
+      </c>
+      <c r="V15" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S16" s="1">
+        <f>-(-45)</f>
+        <v>45</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/23-24_Automatic-Control-Lab/Multimodal Transformer/Language_Map.xlsx
+++ b/23-24_Automatic-Control-Lab/Multimodal Transformer/Language_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7e957c80ce88a9/Documents/Professional/Research/23-24_Automatic-Control-Lab/Multimodal Transformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{42D1905F-9432-46E3-8812-C63BDE4498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83585B2C-833F-42F0-BEA9-FEEFA81E9A76}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{42D1905F-9432-46E3-8812-C63BDE4498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9491F97E-6E77-48F9-817A-7BBFC9DA2767}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C47CD43C-E4AD-4B61-82F7-08EB155AECF6}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{C47CD43C-E4AD-4B61-82F7-08EB155AECF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,23 +34,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>45+90</t>
+    <t>60-180</t>
   </si>
   <si>
-    <t>135+90</t>
+    <t>150-180</t>
   </si>
   <si>
-    <t>270-(90-135)</t>
+    <t>270+30</t>
+  </si>
+  <si>
+    <t>90+60</t>
+  </si>
+  <si>
+    <t>90+150</t>
+  </si>
+  <si>
+    <t>if &lt; 0</t>
+  </si>
+  <si>
+    <t>if &lt; -90</t>
+  </si>
+  <si>
+    <t>if &gt; 0</t>
+  </si>
+  <si>
+    <t>-(-theta)</t>
+  </si>
+  <si>
+    <t>270+180+(-theta)</t>
+  </si>
+  <si>
+    <t>theta+90</t>
+  </si>
+  <si>
+    <t>if &lt; 180</t>
+  </si>
+  <si>
+    <t>robot angle, theta_r</t>
+  </si>
+  <si>
+    <t>laser range, theta_l</t>
+  </si>
+  <si>
+    <t>if &gt; 180</t>
+  </si>
+  <si>
+    <t>360-theta</t>
+  </si>
+  <si>
+    <t>-theta</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>theta_r+theta_l</t>
+  </si>
+  <si>
+    <t>x_r+distance*cos(theta_r+theta_l)</t>
+  </si>
+  <si>
+    <t>y_r+distance*sin(theta_r+theta_l)</t>
+  </si>
+  <si>
+    <t>Get clipseg segmentation on the image.</t>
+  </si>
+  <si>
+    <t>Take the mid-line values, split it into 62.2 pieces, take the mode segmentation object value for those.</t>
+  </si>
+  <si>
+    <t>In the language map, place the object ID in the coordinates of LDS range from 330 to 30.</t>
+  </si>
+  <si>
+    <t>For the current goal, get goal-relevance values using LLM word embedding. Copy the language map and replace it with goal-relevance values.</t>
+  </si>
+  <si>
+    <t>Use the goal-relevance values as the initiating state-value function in model-based Dyna Q+ algorithm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -89,13 +169,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,8 +327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4271028" y="971102"/>
-          <a:ext cx="4408804" cy="4570809"/>
+          <a:off x="4265833" y="974912"/>
+          <a:ext cx="4405686" cy="4577736"/>
           <a:chOff x="4265833" y="942067"/>
           <a:chExt cx="4398066" cy="4418869"/>
         </a:xfrm>
@@ -15080,8 +15266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4273261" y="971102"/>
-          <a:ext cx="4406570" cy="4574620"/>
+          <a:off x="4267200" y="974912"/>
+          <a:ext cx="4404318" cy="4581547"/>
           <a:chOff x="3901440" y="2747010"/>
           <a:chExt cx="1424940" cy="1424940"/>
         </a:xfrm>
@@ -16335,8 +16521,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="13500000">
-          <a:off x="3972867" y="1431269"/>
-          <a:ext cx="2734553" cy="1570136"/>
+          <a:off x="3968365" y="1431615"/>
+          <a:ext cx="2736458" cy="1567538"/>
           <a:chOff x="8429996" y="1990050"/>
           <a:chExt cx="2572930" cy="1583149"/>
         </a:xfrm>
@@ -16475,8 +16661,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="8726186">
-          <a:off x="5870796" y="3353994"/>
-          <a:ext cx="1918812" cy="2056354"/>
+          <a:off x="5863003" y="3353994"/>
+          <a:ext cx="1914309" cy="2063281"/>
           <a:chOff x="8434288" y="1585322"/>
           <a:chExt cx="1891900" cy="1963583"/>
         </a:xfrm>
@@ -16615,8 +16801,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="6300000">
-          <a:off x="5085456" y="4467901"/>
-          <a:ext cx="1786042" cy="435469"/>
+          <a:off x="5075671" y="4473703"/>
+          <a:ext cx="1792969" cy="438413"/>
           <a:chOff x="8925330" y="2779152"/>
           <a:chExt cx="1679509" cy="444636"/>
         </a:xfrm>
@@ -16832,72 +17018,6 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>189065</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>32367</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>467474</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130401</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Isosceles Triangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F13C342-2F57-2DFF-9BEC-73D1DBB85666}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="6300000">
-          <a:off x="11707088" y="1256196"/>
-          <a:ext cx="1050534" cy="888875"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -17545,6 +17665,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17842,44 +17966,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8DC10-98DC-46EC-A8D1-0524D5032FD0}">
-  <dimension ref="S15:V16"/>
+  <dimension ref="R12:V48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L42" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26:R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S15" s="1">
-        <v>-45</v>
+    <row r="12" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>0</v>
       </c>
-      <c r="T15" s="1">
-        <v>-135</v>
-      </c>
-      <c r="U15" s="1">
-        <v>45</v>
-      </c>
-      <c r="V15" s="1">
-        <v>135</v>
+      <c r="T12" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S16" s="1">
-        <f>-(-45)</f>
-        <v>45</v>
+    <row r="14" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S14" s="1">
+        <v>-60</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T14" s="1">
+        <v>-150</v>
+      </c>
+      <c r="U14" s="1">
+        <v>60</v>
+      </c>
+      <c r="V14" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S15" s="2">
+        <v>60</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>0</v>
+      <c r="U15" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>1</v>
+      <c r="V15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="18:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R26" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R28" s="5"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R29" s="5"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R30" s="5"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R32" s="5"/>
+      <c r="S32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="9"/>
+    </row>
+    <row r="33" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R33" s="5"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="9"/>
+    </row>
+    <row r="34" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R35" s="5"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="18:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="12"/>
+    </row>
+    <row r="40" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/23-24_Automatic-Control-Lab/Multimodal Transformer/Language_Map.xlsx
+++ b/23-24_Automatic-Control-Lab/Multimodal Transformer/Language_Map.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7e957c80ce88a9/Documents/Professional/Research/23-24_Automatic-Control-Lab/Multimodal Transformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{42D1905F-9432-46E3-8812-C63BDE4498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9491F97E-6E77-48F9-817A-7BBFC9DA2767}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{42D1905F-9432-46E3-8812-C63BDE4498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A4B80B-A25E-4DA1-9ED9-801DA7FF9D90}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{C47CD43C-E4AD-4B61-82F7-08EB155AECF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" xr2:uid="{C47CD43C-E4AD-4B61-82F7-08EB155AECF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">                             </t>
+  </si>
   <si>
     <t>60-180</t>
   </si>
@@ -51,28 +57,28 @@
     <t>90+150</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>robot angle, theta_r</t>
+  </si>
+  <si>
     <t>if &lt; 0</t>
+  </si>
+  <si>
+    <t>-(-theta)</t>
   </si>
   <si>
     <t>if &lt; -90</t>
   </si>
   <si>
+    <t>270+180+(-theta)</t>
+  </si>
+  <si>
     <t>if &gt; 0</t>
   </si>
   <si>
-    <t>-(-theta)</t>
-  </si>
-  <si>
-    <t>270+180+(-theta)</t>
-  </si>
-  <si>
     <t>theta+90</t>
-  </si>
-  <si>
-    <t>if &lt; 180</t>
-  </si>
-  <si>
-    <t>robot angle, theta_r</t>
   </si>
   <si>
     <t>laser range, theta_l</t>
@@ -82,6 +88,9 @@
   </si>
   <si>
     <t>360-theta</t>
+  </si>
+  <si>
+    <t>if &lt; 180</t>
   </si>
   <si>
     <t>-theta</t>
@@ -113,15 +122,12 @@
   <si>
     <t>Use the goal-relevance values as the initiating state-value function in model-based Dyna Q+ algorithm.</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,15 +272,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -327,8 +332,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4265833" y="974912"/>
-          <a:ext cx="4405686" cy="4577736"/>
+          <a:off x="4265833" y="971102"/>
+          <a:ext cx="4401876" cy="4580334"/>
           <a:chOff x="4265833" y="942067"/>
           <a:chExt cx="4398066" cy="4418869"/>
         </a:xfrm>
@@ -15266,8 +15271,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4267200" y="974912"/>
-          <a:ext cx="4404318" cy="4581547"/>
+          <a:off x="4267200" y="971102"/>
+          <a:ext cx="4400508" cy="4584145"/>
           <a:chOff x="3901440" y="2747010"/>
           <a:chExt cx="1424940" cy="1424940"/>
         </a:xfrm>
@@ -16521,8 +16526,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="13500000">
-          <a:off x="3968365" y="1431615"/>
-          <a:ext cx="2736458" cy="1567538"/>
+          <a:off x="3965507" y="1432568"/>
+          <a:ext cx="2734553" cy="1567538"/>
           <a:chOff x="8429996" y="1990050"/>
           <a:chExt cx="2572930" cy="1583149"/>
         </a:xfrm>
@@ -16662,7 +16667,7 @@
       <xdr:grpSpPr>
         <a:xfrm rot="8726186">
           <a:off x="5863003" y="3353994"/>
-          <a:ext cx="1914309" cy="2063281"/>
+          <a:ext cx="1916214" cy="2065879"/>
           <a:chOff x="8434288" y="1585322"/>
           <a:chExt cx="1891900" cy="1963583"/>
         </a:xfrm>
@@ -16801,8 +16806,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="6300000">
-          <a:off x="5075671" y="4473703"/>
-          <a:ext cx="1792969" cy="438413"/>
+          <a:off x="5072467" y="4473097"/>
+          <a:ext cx="1795567" cy="434603"/>
           <a:chOff x="8925330" y="2779152"/>
           <a:chExt cx="1679509" cy="444636"/>
         </a:xfrm>
@@ -17657,16 +17662,517 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Plaque 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B11C770-DB26-D93D-FDC3-D5DCD83393E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="4819650"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="plaque">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1591787B-92A7-528C-4A95-F257D33EE3E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5000625" y="1857375"/>
+          <a:ext cx="1714500" cy="3657600"/>
+          <a:chOff x="5000625" y="1857375"/>
+          <a:chExt cx="1714500" cy="3657600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Straight Connector 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6555F75-89AB-1F90-7769-A42B67FADD1A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5857875" y="1857375"/>
+            <a:ext cx="0" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Straight Connector 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADA892A-5C7C-436E-BF4C-D701BA6E5EE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="1800000" flipV="1">
+            <a:off x="6715125" y="2095500"/>
+            <a:ext cx="0" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="Straight Connector 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8065AE8D-CEF6-4E00-88D0-15B1CBDB7834}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="19800000" flipH="1" flipV="1">
+            <a:off x="5000625" y="2076451"/>
+            <a:ext cx="0" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Straight Connector 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A08414-923C-4493-9057-6976A79C08B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="900000" flipV="1">
+            <a:off x="6305550" y="1924050"/>
+            <a:ext cx="0" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Straight Connector 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CA0CCD-FC04-4FDF-AC4F-B7B8CBC885DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="20700000" flipH="1" flipV="1">
+            <a:off x="5419725" y="1914526"/>
+            <a:ext cx="0" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD730A39-EE95-42C6-8D1A-44FAD63BA5F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5000625" y="1390650"/>
+          <a:ext cx="1714500" cy="3648075"/>
+          <a:chOff x="5000625" y="1857375"/>
+          <a:chExt cx="1714500" cy="3648075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="Straight Connector 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE487D3-1E26-14DF-3D19-6C3954E44B2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5857875" y="1857375"/>
+            <a:ext cx="0" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="Straight Connector 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86FEC6A-797A-2C7F-5B18-7B26B9A0C708}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="1800000" flipV="1">
+            <a:off x="6715125" y="2085975"/>
+            <a:ext cx="0" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Straight Connector 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CEA640-4AAB-FF74-4734-6281FCD0334A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="19800000" flipH="1" flipV="1">
+            <a:off x="5000625" y="2076451"/>
+            <a:ext cx="0" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482203</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B10B8A-469F-5547-0A5D-C5E8B9C394B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4125516" y="1839516"/>
+          <a:ext cx="3408759" cy="11906"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>377571</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159931</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD3BF33-28F9-466C-B230-08A332BE0605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5842540" y="1841146"/>
+          <a:ext cx="1604016" cy="3439822"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17966,28 +18472,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8DC10-98DC-46EC-A8D1-0524D5032FD0}">
-  <dimension ref="R12:V48"/>
+  <dimension ref="P12:V48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L42" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26:R48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="18" max="18" width="21.140625" customWidth="1"/>
     <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S12" t="s">
+    <row r="12" spans="16:22">
+      <c r="P12" t="s">
         <v>0</v>
       </c>
-      <c r="T12" t="s">
+      <c r="S12" t="s">
         <v>1</v>
       </c>
+      <c r="T12" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="19:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="16:22">
       <c r="S14" s="1">
         <v>-60</v>
       </c>
@@ -18001,150 +18510,154 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="19:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="16:22">
       <c r="S15" s="2">
         <v>60</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="26" spans="18:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R26" s="13" t="s">
+    <row r="26" spans="18:21" ht="15.75" thickBot="1">
+      <c r="R26" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="18:21">
+      <c r="R27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="18:21">
+      <c r="R28" s="5"/>
+      <c r="T28" t="s">
+        <v>10</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="18:21">
+      <c r="R29" s="5"/>
+      <c r="T29" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="18:21">
+      <c r="R30" s="5"/>
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="18:21">
+      <c r="R31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31" t="s">
+        <v>15</v>
+      </c>
+      <c r="T31" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="18:21">
+      <c r="R32" s="5"/>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="18:21">
+      <c r="R33" s="5"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="18:21">
+      <c r="R34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="18:21">
+      <c r="R35" s="5"/>
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="18:21">
+      <c r="R36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="8"/>
+    </row>
+    <row r="37" spans="18:21" ht="15.75" thickBot="1">
+      <c r="R37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="11"/>
+    </row>
+    <row r="40" spans="18:21">
+      <c r="R40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="18:21">
+      <c r="R42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="18:21">
+      <c r="R44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="18:21">
+      <c r="R46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R28" s="5"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R29" s="5"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R30" s="5"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="9"/>
-    </row>
-    <row r="31" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U31" s="9"/>
-    </row>
-    <row r="32" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R32" s="5"/>
-      <c r="S32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U32" s="9"/>
-    </row>
-    <row r="33" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R33" s="5"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="9"/>
-    </row>
-    <row r="34" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T34" s="7"/>
-      <c r="U34" s="9"/>
-    </row>
-    <row r="35" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R35" s="5"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="9"/>
-    </row>
-    <row r="36" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="18:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="12"/>
-    </row>
-    <row r="40" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="18:21" x14ac:dyDescent="0.25">
-      <c r="R46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="18:21">
       <c r="R48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E1E14-8DDC-4982-A430-550508C5C475}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>